--- a/CsvToXlsx/bin/Debug/Daily_GRV_Details_5596705.xlsx
+++ b/CsvToXlsx/bin/Debug/Daily_GRV_Details_5596705.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="80">
   <si>
     <t>GRV No.</t>
   </si>
@@ -56,12 +56,12 @@
     <t>Total Amount</t>
   </si>
   <si>
+    <t>_</t>
+  </si>
+  <si>
     <t/>
   </si>
   <si>
-    <t>_</t>
-  </si>
-  <si>
     <t>1388</t>
   </si>
   <si>
@@ -92,12 +92,30 @@
     <t>WINGS - DAYBREAK 5KG</t>
   </si>
   <si>
+    <t>134.5</t>
+  </si>
+  <si>
+    <t>4357.8</t>
+  </si>
+  <si>
+    <t>33409.8</t>
+  </si>
+  <si>
     <t>DSFB6</t>
   </si>
   <si>
     <t>FILLET - DAYBREAK 3 x 2kg</t>
   </si>
   <si>
+    <t>205.2</t>
+  </si>
+  <si>
+    <t>5540.4</t>
+  </si>
+  <si>
+    <t>42476.4</t>
+  </si>
+  <si>
     <t>DSLK</t>
   </si>
   <si>
@@ -122,6 +140,12 @@
     <t>THIGHS - DAYBREAK 5KG</t>
   </si>
   <si>
+    <t>5443.2</t>
+  </si>
+  <si>
+    <t>41731.2</t>
+  </si>
+  <si>
     <t>1389</t>
   </si>
   <si>
@@ -134,6 +158,9 @@
     <t>FRESH - DS W/BIRD Each</t>
   </si>
   <si>
+    <t>4262.5</t>
+  </si>
+  <si>
     <t>DSFW8</t>
   </si>
   <si>
@@ -146,12 +173,18 @@
     <t>FRESH - DS DRUMS 16 PC</t>
   </si>
   <si>
+    <t>26.8</t>
+  </si>
+  <si>
     <t>DSFF12</t>
   </si>
   <si>
     <t>FRESH - DS FILLET 12PC</t>
   </si>
   <si>
+    <t>1556.8</t>
+  </si>
+  <si>
     <t>1390</t>
   </si>
   <si>
@@ -170,6 +203,12 @@
     <t>MALA - C/RANGE 10 X 1KG</t>
   </si>
   <si>
+    <t>2764.8</t>
+  </si>
+  <si>
+    <t>21196.8</t>
+  </si>
+  <si>
     <t>CRCD</t>
   </si>
   <si>
@@ -182,6 +221,9 @@
     <t>THIGHS - C/RANGE 5KG</t>
   </si>
   <si>
+    <t>16762.5</t>
+  </si>
+  <si>
     <t>CRBO</t>
   </si>
   <si>
@@ -200,19 +242,23 @@
     <t>MIX P - RANIA 10PC+ 6 x 2kg</t>
   </si>
   <si>
+    <t>266.4</t>
+  </si>
+  <si>
     <t>SRFB25</t>
   </si>
   <si>
     <t>FILLET - RANIA 2 X 2.5kg (5kg)</t>
+  </si>
+  <si>
+    <t>162.5</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="#,##0.000"/>
-  </numFmts>
+  <numFmts count="0"/>
   <fonts count="5">
     <font>
       <sz val="11"/>
@@ -266,8 +312,8 @@
     <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="4" applyFont="1" xfId="0" applyProtection="1"/>
     <xf numFmtId="49" applyNumberFormat="1" fontId="0" applyFont="1" xfId="0" applyProtection="1"/>
+    <xf numFmtId="3" applyNumberFormat="1" fontId="0" applyFont="1" xfId="0" applyProtection="1"/>
     <xf numFmtId="4" applyNumberFormat="1" fontId="0" applyFont="1" xfId="0" applyProtection="1"/>
-    <xf numFmtId="164" applyNumberFormat="1" fontId="0" applyFont="1" xfId="0" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -278,7 +324,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:Y22"/>
+  <dimension ref="A1:N22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" state="frozen" activePane="bottomLeft"/>
@@ -301,17 +347,6 @@
     <col min="12" max="12" width="16.1492418561663" customWidth="1"/>
     <col min="13" max="13" width="11.7370398385184" customWidth="1"/>
     <col min="14" max="14" width="11.1952481951032" customWidth="1"/>
-    <col min="15" max="15" width="9.140625" customWidth="1"/>
-    <col min="16" max="16" width="9.140625" customWidth="1"/>
-    <col min="17" max="17" width="9.140625" customWidth="1"/>
-    <col min="18" max="18" width="9.140625" customWidth="1"/>
-    <col min="19" max="19" width="9.140625" customWidth="1"/>
-    <col min="20" max="20" width="9.140625" customWidth="1"/>
-    <col min="21" max="21" width="9.140625" customWidth="1"/>
-    <col min="22" max="22" width="9.140625" customWidth="1"/>
-    <col min="23" max="23" width="9.140625" customWidth="1"/>
-    <col min="24" max="24" width="9.140625" customWidth="1"/>
-    <col min="25" max="25" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -357,115 +392,49 @@
       <c r="N1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q1" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="R1" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="S1" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="T1" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="U1" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="V1" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="W1" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="X1" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="Y1" s="0" t="s">
-        <v>14</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="0" t="s">
-        <v>14</v>
-      </c>
       <c r="C2" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L2" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N2" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="O2" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="P2" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q2" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="R2" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="S2" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="T2" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="U2" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="V2" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="W2" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="X2" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="Y2" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3">
@@ -496,53 +465,20 @@
       <c r="I3" s="6">
         <v>432</v>
       </c>
-      <c r="J3" s="7">
+      <c r="J3" s="6">
         <v>2160</v>
       </c>
       <c r="K3" s="6">
         <v>144</v>
       </c>
-      <c r="L3" s="6">
-        <v>62208</v>
-      </c>
-      <c r="M3" s="6">
+      <c r="L3" s="7">
+        <v>-62208</v>
+      </c>
+      <c r="M3" s="7">
         <v>9331.2</v>
       </c>
-      <c r="N3" s="6">
+      <c r="N3" s="7">
         <v>71539.2</v>
-      </c>
-      <c r="O3" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="P3" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q3" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="R3" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="S3" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="T3" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="U3" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="V3" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="W3" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="X3" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="Y3" s="0" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="4">
@@ -573,53 +509,20 @@
       <c r="I4" s="6">
         <v>216</v>
       </c>
-      <c r="J4" s="7">
+      <c r="J4" s="6">
         <v>1080</v>
       </c>
-      <c r="K4" s="6">
-        <v>134.5</v>
+      <c r="K4" s="0" t="s">
+        <v>26</v>
       </c>
       <c r="L4" s="6">
         <v>29052</v>
       </c>
-      <c r="M4" s="6">
-        <v>4357.8</v>
-      </c>
-      <c r="N4" s="6">
-        <v>33409.8</v>
-      </c>
-      <c r="O4" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="P4" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q4" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="R4" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="S4" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="T4" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="U4" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="V4" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="W4" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="X4" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="Y4" s="0" t="s">
-        <v>14</v>
+      <c r="M4" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="N4" s="0" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="5">
@@ -639,10 +542,10 @@
         <v>20</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="H5" s="5" t="s">
         <v>23</v>
@@ -650,53 +553,20 @@
       <c r="I5" s="6">
         <v>180</v>
       </c>
-      <c r="J5" s="7">
+      <c r="J5" s="6">
         <v>1080</v>
       </c>
-      <c r="K5" s="6">
-        <v>205.2</v>
+      <c r="K5" s="0" t="s">
+        <v>31</v>
       </c>
       <c r="L5" s="6">
         <v>36936</v>
       </c>
-      <c r="M5" s="6">
-        <v>5540.4</v>
-      </c>
-      <c r="N5" s="6">
-        <v>42476.4</v>
-      </c>
-      <c r="O5" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="P5" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q5" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="R5" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="S5" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="T5" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="U5" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="V5" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="W5" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="X5" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="Y5" s="0" t="s">
-        <v>14</v>
+      <c r="M5" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="N5" s="0" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="6">
@@ -716,10 +586,10 @@
         <v>20</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="H6" s="5" t="s">
         <v>23</v>
@@ -727,7 +597,7 @@
       <c r="I6" s="6">
         <v>140</v>
       </c>
-      <c r="J6" s="7">
+      <c r="J6" s="6">
         <v>1400</v>
       </c>
       <c r="K6" s="6">
@@ -741,39 +611,6 @@
       </c>
       <c r="N6" s="6">
         <v>20608</v>
-      </c>
-      <c r="O6" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="P6" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q6" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="R6" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="S6" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="T6" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="U6" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="V6" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="W6" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="X6" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="Y6" s="0" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="7">
@@ -793,10 +630,10 @@
         <v>20</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H7" s="5" t="s">
         <v>23</v>
@@ -804,7 +641,7 @@
       <c r="I7" s="6">
         <v>216</v>
       </c>
-      <c r="J7" s="7">
+      <c r="J7" s="6">
         <v>1080</v>
       </c>
       <c r="K7" s="6">
@@ -818,39 +655,6 @@
       </c>
       <c r="N7" s="6">
         <v>31050</v>
-      </c>
-      <c r="O7" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="P7" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q7" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="R7" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="S7" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="T7" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="U7" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="V7" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="W7" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="X7" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="Y7" s="0" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="8">
@@ -870,10 +674,10 @@
         <v>20</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="H8" s="5" t="s">
         <v>23</v>
@@ -881,7 +685,7 @@
       <c r="I8" s="6">
         <v>70</v>
       </c>
-      <c r="J8" s="7">
+      <c r="J8" s="6">
         <v>700</v>
       </c>
       <c r="K8" s="6">
@@ -895,39 +699,6 @@
       </c>
       <c r="N8" s="6">
         <v>27531</v>
-      </c>
-      <c r="O8" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="P8" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q8" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="R8" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="S8" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="T8" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="U8" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="V8" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="W8" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="X8" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="Y8" s="0" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="9">
@@ -947,10 +718,10 @@
         <v>20</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="H9" s="5" t="s">
         <v>23</v>
@@ -958,7 +729,7 @@
       <c r="I9" s="6">
         <v>324</v>
       </c>
-      <c r="J9" s="7">
+      <c r="J9" s="6">
         <v>1620</v>
       </c>
       <c r="K9" s="6">
@@ -967,49 +738,16 @@
       <c r="L9" s="6">
         <v>36288</v>
       </c>
-      <c r="M9" s="6">
-        <v>5443.2</v>
-      </c>
-      <c r="N9" s="6">
-        <v>41731.2</v>
-      </c>
-      <c r="O9" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="P9" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q9" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="R9" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="S9" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="T9" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="U9" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="V9" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="W9" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="X9" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="Y9" s="0" t="s">
-        <v>14</v>
+      <c r="M9" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="N9" s="0" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="5" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>17</v>
@@ -1021,13 +759,13 @@
         <v>19</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="H10" s="5" t="s">
         <v>23</v>
@@ -1035,58 +773,25 @@
       <c r="I10" s="6">
         <v>3100</v>
       </c>
-      <c r="J10" s="7">
-        <v>4262.5</v>
-      </c>
-      <c r="K10" s="6">
+      <c r="J10" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="K10" s="7">
         <v>31.24</v>
       </c>
-      <c r="L10" s="6">
+      <c r="L10" s="7">
         <v>96849.27</v>
       </c>
-      <c r="M10" s="6">
+      <c r="M10" s="7">
         <v>14527.39</v>
       </c>
-      <c r="N10" s="6">
+      <c r="N10" s="7">
         <v>111376.66</v>
-      </c>
-      <c r="O10" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="P10" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q10" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="R10" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="S10" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="T10" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="U10" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="V10" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="W10" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="X10" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="Y10" s="0" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="5" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>17</v>
@@ -1098,13 +803,13 @@
         <v>19</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="H11" s="5" t="s">
         <v>23</v>
@@ -1115,55 +820,22 @@
       <c r="J11" s="7">
         <v>206.25</v>
       </c>
-      <c r="K11" s="6">
+      <c r="K11" s="7">
         <v>31.24</v>
       </c>
-      <c r="L11" s="6">
+      <c r="L11" s="7">
         <v>4686.27</v>
       </c>
-      <c r="M11" s="6">
+      <c r="M11" s="7">
         <v>702.94</v>
       </c>
-      <c r="N11" s="6">
+      <c r="N11" s="7">
         <v>5389.21</v>
-      </c>
-      <c r="O11" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="P11" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q11" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="R11" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="S11" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="T11" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="U11" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="V11" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="W11" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="X11" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="Y11" s="0" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="5" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>17</v>
@@ -1175,13 +847,13 @@
         <v>19</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="H12" s="5" t="s">
         <v>23</v>
@@ -1192,55 +864,22 @@
       <c r="J12" s="7">
         <v>14.85</v>
       </c>
-      <c r="K12" s="6">
+      <c r="K12" s="7">
         <v>27.02</v>
       </c>
-      <c r="L12" s="6">
+      <c r="L12" s="7">
         <v>810.45</v>
       </c>
-      <c r="M12" s="6">
+      <c r="M12" s="7">
         <v>121.57</v>
       </c>
-      <c r="N12" s="6">
+      <c r="N12" s="7">
         <v>932.02</v>
-      </c>
-      <c r="O12" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="P12" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q12" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="R12" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="S12" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="T12" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="U12" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="V12" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="W12" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="X12" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="Y12" s="0" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="5" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>17</v>
@@ -1252,13 +891,13 @@
         <v>19</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="H13" s="5" t="s">
         <v>23</v>
@@ -1266,58 +905,25 @@
       <c r="I13" s="6">
         <v>20</v>
       </c>
-      <c r="J13" s="7">
-        <v>26.8</v>
-      </c>
-      <c r="K13" s="6">
+      <c r="J13" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="K13" s="7">
         <v>57.83</v>
       </c>
-      <c r="L13" s="6">
+      <c r="L13" s="7">
         <v>1156.58</v>
       </c>
-      <c r="M13" s="6">
+      <c r="M13" s="7">
         <v>173.49</v>
       </c>
-      <c r="N13" s="6">
+      <c r="N13" s="7">
         <v>1330.07</v>
-      </c>
-      <c r="O13" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="P13" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q13" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="R13" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="S13" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="T13" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="U13" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="V13" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="W13" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="X13" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="Y13" s="0" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="5" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>17</v>
@@ -1329,13 +935,13 @@
         <v>19</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="H14" s="5" t="s">
         <v>23</v>
@@ -1343,58 +949,25 @@
       <c r="I14" s="6">
         <v>120</v>
       </c>
-      <c r="J14" s="7">
+      <c r="J14" s="6">
         <v>210</v>
       </c>
-      <c r="K14" s="6">
+      <c r="K14" s="7">
         <v>86.49</v>
       </c>
-      <c r="L14" s="6">
+      <c r="L14" s="7">
         <v>10378.64</v>
       </c>
-      <c r="M14" s="6">
-        <v>1556.8</v>
-      </c>
-      <c r="N14" s="6">
+      <c r="M14" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="N14" s="7">
         <v>11935.44</v>
-      </c>
-      <c r="O14" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="P14" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q14" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="R14" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="S14" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="T14" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="U14" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="V14" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="W14" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="X14" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="Y14" s="0" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="5" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>17</v>
@@ -1406,13 +979,13 @@
         <v>19</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="H15" s="5" t="s">
         <v>23</v>
@@ -1420,7 +993,7 @@
       <c r="I15" s="6">
         <v>96</v>
       </c>
-      <c r="J15" s="7">
+      <c r="J15" s="6">
         <v>960</v>
       </c>
       <c r="K15" s="6">
@@ -1435,43 +1008,10 @@
       <c r="N15" s="6">
         <v>35880</v>
       </c>
-      <c r="O15" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="P15" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q15" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="R15" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="S15" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="T15" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="U15" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="V15" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="W15" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="X15" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="Y15" s="0" t="s">
-        <v>14</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" s="5" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>17</v>
@@ -1483,13 +1023,13 @@
         <v>19</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="H16" s="5" t="s">
         <v>23</v>
@@ -1497,7 +1037,7 @@
       <c r="I16" s="6">
         <v>384</v>
       </c>
-      <c r="J16" s="7">
+      <c r="J16" s="6">
         <v>3840</v>
       </c>
       <c r="K16" s="6">
@@ -1506,49 +1046,16 @@
       <c r="L16" s="6">
         <v>18432</v>
       </c>
-      <c r="M16" s="6">
-        <v>2764.8</v>
-      </c>
-      <c r="N16" s="6">
-        <v>21196.8</v>
-      </c>
-      <c r="O16" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="P16" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q16" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="R16" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="S16" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="T16" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="U16" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="V16" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="W16" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="X16" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="Y16" s="0" t="s">
-        <v>14</v>
+      <c r="M16" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="N16" s="0" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="5" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="B17" s="5" t="s">
         <v>17</v>
@@ -1560,13 +1067,13 @@
         <v>19</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="H17" s="5" t="s">
         <v>23</v>
@@ -1574,7 +1081,7 @@
       <c r="I17" s="6">
         <v>150</v>
       </c>
-      <c r="J17" s="7">
+      <c r="J17" s="6">
         <v>750</v>
       </c>
       <c r="K17" s="6">
@@ -1589,43 +1096,10 @@
       <c r="N17" s="6">
         <v>25875</v>
       </c>
-      <c r="O17" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="P17" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q17" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="R17" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="S17" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="T17" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="U17" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="V17" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="W17" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="X17" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="Y17" s="0" t="s">
-        <v>14</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" s="5" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>17</v>
@@ -1637,13 +1111,13 @@
         <v>19</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="H18" s="5" t="s">
         <v>23</v>
@@ -1651,58 +1125,25 @@
       <c r="I18" s="6">
         <v>150</v>
       </c>
-      <c r="J18" s="7">
+      <c r="J18" s="6">
         <v>750</v>
       </c>
-      <c r="K18" s="6">
+      <c r="K18" s="7">
         <v>111.75</v>
       </c>
-      <c r="L18" s="6">
-        <v>16762.5</v>
-      </c>
-      <c r="M18" s="6">
+      <c r="L18" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="M18" s="7">
         <v>2514.38</v>
       </c>
-      <c r="N18" s="6">
+      <c r="N18" s="7">
         <v>19276.88</v>
-      </c>
-      <c r="O18" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="P18" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q18" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="R18" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="S18" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="T18" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="U18" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="V18" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="W18" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="X18" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="Y18" s="0" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="5" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>17</v>
@@ -1714,13 +1155,13 @@
         <v>19</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="H19" s="5" t="s">
         <v>23</v>
@@ -1728,7 +1169,7 @@
       <c r="I19" s="6">
         <v>288</v>
       </c>
-      <c r="J19" s="7">
+      <c r="J19" s="6">
         <v>2880</v>
       </c>
       <c r="K19" s="6">
@@ -1743,43 +1184,10 @@
       <c r="N19" s="6">
         <v>39744</v>
       </c>
-      <c r="O19" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="P19" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q19" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="R19" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="S19" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="T19" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="U19" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="V19" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="W19" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="X19" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="Y19" s="0" t="s">
-        <v>14</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" s="5" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>17</v>
@@ -1791,13 +1199,13 @@
         <v>19</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>59</v>
+        <v>73</v>
       </c>
       <c r="H20" s="5" t="s">
         <v>23</v>
@@ -1805,7 +1213,7 @@
       <c r="I20" s="6">
         <v>192</v>
       </c>
-      <c r="J20" s="7">
+      <c r="J20" s="6">
         <v>1920</v>
       </c>
       <c r="K20" s="6">
@@ -1820,43 +1228,10 @@
       <c r="N20" s="6">
         <v>20976</v>
       </c>
-      <c r="O20" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="P20" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q20" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="R20" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="S20" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="T20" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="U20" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="V20" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="W20" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="X20" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="Y20" s="0" t="s">
-        <v>14</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" s="5" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="B21" s="5" t="s">
         <v>17</v>
@@ -1868,13 +1243,13 @@
         <v>19</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="H21" s="5" t="s">
         <v>23</v>
@@ -1882,11 +1257,11 @@
       <c r="I21" s="6">
         <v>150</v>
       </c>
-      <c r="J21" s="7">
+      <c r="J21" s="6">
         <v>1800</v>
       </c>
-      <c r="K21" s="6">
-        <v>266.4</v>
+      <c r="K21" s="0" t="s">
+        <v>76</v>
       </c>
       <c r="L21" s="6">
         <v>39960</v>
@@ -1897,43 +1272,10 @@
       <c r="N21" s="6">
         <v>45954</v>
       </c>
-      <c r="O21" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="P21" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q21" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="R21" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="S21" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="T21" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="U21" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="V21" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="W21" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="X21" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="Y21" s="0" t="s">
-        <v>14</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" s="5" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>17</v>
@@ -1945,13 +1287,13 @@
         <v>19</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>62</v>
+        <v>77</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="H22" s="5" t="s">
         <v>23</v>
@@ -1959,53 +1301,20 @@
       <c r="I22" s="6">
         <v>150</v>
       </c>
-      <c r="J22" s="7">
+      <c r="J22" s="6">
         <v>750</v>
       </c>
-      <c r="K22" s="6">
-        <v>162.5</v>
+      <c r="K22" s="0" t="s">
+        <v>79</v>
       </c>
       <c r="L22" s="6">
         <v>24375</v>
       </c>
-      <c r="M22" s="6">
+      <c r="M22" s="7">
         <v>3656.25</v>
       </c>
-      <c r="N22" s="6">
+      <c r="N22" s="7">
         <v>28031.25</v>
-      </c>
-      <c r="O22" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="P22" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q22" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="R22" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="S22" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="T22" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="U22" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="V22" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="W22" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="X22" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="Y22" s="0" t="s">
-        <v>14</v>
       </c>
     </row>
   </sheetData>
